--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H2">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I2">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J2">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N2">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O2">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P2">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q2">
-        <v>0.3230777265706666</v>
+        <v>0.4139957744266667</v>
       </c>
       <c r="R2">
-        <v>2.907699539136</v>
+        <v>3.72596196984</v>
       </c>
       <c r="S2">
-        <v>0.09220347702235977</v>
+        <v>0.09296701505922197</v>
       </c>
       <c r="T2">
-        <v>0.1049627177919141</v>
+        <v>0.1147611013680015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H3">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I3">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J3">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N3">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O3">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P3">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q3">
-        <v>0.028226901696</v>
+        <v>0.2280234910141667</v>
       </c>
       <c r="R3">
-        <v>0.169361410176</v>
+        <v>1.368140946085</v>
       </c>
       <c r="S3">
-        <v>0.00805570383809877</v>
+        <v>0.0512050234143765</v>
       </c>
       <c r="T3">
-        <v>0.006113641957114418</v>
+        <v>0.04213928190096811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H4">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I4">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J4">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N4">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O4">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P4">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q4">
-        <v>0.001894471488</v>
+        <v>0.002471855973888889</v>
       </c>
       <c r="R4">
-        <v>0.017050243392</v>
+        <v>0.022246703765</v>
       </c>
       <c r="S4">
-        <v>0.0005406651215713465</v>
+        <v>0.0005550807175918702</v>
       </c>
       <c r="T4">
-        <v>0.0006154830859758373</v>
+        <v>0.0006852072690341226</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>3.110073</v>
       </c>
       <c r="I5">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J5">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N5">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O5">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P5">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q5">
-        <v>1.944383774360667</v>
+        <v>1.746301842736</v>
       </c>
       <c r="R5">
-        <v>17.499453969246</v>
+        <v>15.716716584624</v>
       </c>
       <c r="S5">
-        <v>0.5549096391288965</v>
+        <v>0.3921500646629003</v>
       </c>
       <c r="T5">
-        <v>0.6316987789709344</v>
+        <v>0.4840810828827753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.110073</v>
       </c>
       <c r="I6">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J6">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N6">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O6">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P6">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q6">
-        <v>0.169878407406</v>
+        <v>0.9618403547635</v>
       </c>
       <c r="R6">
-        <v>1.019270444436</v>
+        <v>5.771042128581</v>
       </c>
       <c r="S6">
-        <v>0.04848176938755371</v>
+        <v>0.2159911580491387</v>
       </c>
       <c r="T6">
-        <v>0.03679382775730833</v>
+        <v>0.1777503785808988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.110073</v>
       </c>
       <c r="I7">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J7">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N7">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O7">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P7">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q7">
-        <v>0.011401527618</v>
+        <v>0.01042669251433333</v>
       </c>
       <c r="R7">
-        <v>0.102613748562</v>
+        <v>0.09384023262899999</v>
       </c>
       <c r="S7">
-        <v>0.003253893423433267</v>
+        <v>0.002341421192861977</v>
       </c>
       <c r="T7">
-        <v>0.003704171557933406</v>
+        <v>0.002890316255588611</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H8">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I8">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J8">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N8">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O8">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P8">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q8">
-        <v>0.9376795726796667</v>
+        <v>0.7002289844880001</v>
       </c>
       <c r="R8">
-        <v>5.626077436078</v>
+        <v>4.201373906928</v>
       </c>
       <c r="S8">
-        <v>0.26760531545029</v>
+        <v>0.1572436304113312</v>
       </c>
       <c r="T8">
-        <v>0.203091265191032</v>
+        <v>0.1294039769382148</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H9">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I9">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J9">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N9">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O9">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P9">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q9">
-        <v>0.08192390543700001</v>
+        <v>0.38567702236425</v>
       </c>
       <c r="R9">
-        <v>0.327695621748</v>
+        <v>1.542708089457</v>
       </c>
       <c r="S9">
-        <v>0.02338034569179808</v>
+        <v>0.08660774761720269</v>
       </c>
       <c r="T9">
-        <v>0.01182922190007349</v>
+        <v>0.04751601891497925</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H10">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I10">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J10">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N10">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O10">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P10">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q10">
-        <v>0.005498389611000001</v>
+        <v>0.0041808764855</v>
       </c>
       <c r="R10">
-        <v>0.03299033766600001</v>
+        <v>0.025085258913</v>
       </c>
       <c r="S10">
-        <v>0.001569190935998897</v>
+        <v>0.0009388588753750075</v>
       </c>
       <c r="T10">
-        <v>0.001190891787713817</v>
+        <v>0.0007726358895394145</v>
       </c>
     </row>
   </sheetData>
